--- a/data_for_sankey_figure_3_manuscript/data_sankey_Figure_3_mean.xlsx
+++ b/data_for_sankey_figure_3_manuscript/data_sankey_Figure_3_mean.xlsx
@@ -490,15 +490,15 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1537741.828679</v>
+        <v>1537741.828678994</v>
       </c>
       <c r="F2" t="n">
-        <v>50728.348444</v>
+        <v>50728.34844399984</v>
       </c>
       <c r="G2" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -522,15 +522,15 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14647918.77801</v>
+        <v>14647918.77801003</v>
       </c>
       <c r="F3" t="n">
-        <v>441826.814211</v>
+        <v>441826.8142109994</v>
       </c>
       <c r="G3" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -554,15 +554,15 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15101752.487446</v>
+        <v>15101752.48744604</v>
       </c>
       <c r="F4" t="n">
-        <v>462713.204887</v>
+        <v>462713.2048870002</v>
       </c>
       <c r="G4" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -586,15 +586,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15015605.63911</v>
+        <v>15015605.63911001</v>
       </c>
       <c r="F5" t="n">
-        <v>15015605.63911</v>
+        <v>15015605.63911001</v>
       </c>
       <c r="G5" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -618,15 +618,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>563641718.429812</v>
+        <v>563641718.4298136</v>
       </c>
       <c r="F6" t="n">
-        <v>563641718.429812</v>
+        <v>563641718.4298136</v>
       </c>
       <c r="G6" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -650,15 +650,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>321462693.94103</v>
+        <v>321462693.941029</v>
       </c>
       <c r="F7" t="n">
-        <v>321462693.94103</v>
+        <v>321462693.941029</v>
       </c>
       <c r="G7" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -682,15 +682,15 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1778971449.530683</v>
+        <v>1778971449.530682</v>
       </c>
       <c r="F8" t="n">
-        <v>1778971449.530683</v>
+        <v>1778971449.530682</v>
       </c>
       <c r="G8" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>427985396.391961</v>
+        <v>427985396.3919621</v>
       </c>
       <c r="F9" t="n">
-        <v>427985396.391961</v>
+        <v>427985396.3919621</v>
       </c>
       <c r="G9" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -749,12 +749,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>390226.266713</v>
+        <v>390226.2667130001</v>
       </c>
       <c r="G10" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -781,12 +781,12 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>441826.814211</v>
+        <v>441826.8142109994</v>
       </c>
       <c r="G11" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -813,12 +813,12 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>831813.846242</v>
+        <v>831813.8462419993</v>
       </c>
       <c r="G12" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -842,15 +842,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2307413.635374</v>
+        <v>2307413.635374005</v>
       </c>
       <c r="F13" t="n">
-        <v>70699.860464</v>
+        <v>70699.86046399998</v>
       </c>
       <c r="G13" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -874,15 +874,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>146479187.779618</v>
+        <v>146479187.7796179</v>
       </c>
       <c r="F14" t="n">
-        <v>4418268.142743</v>
+        <v>4418268.142742999</v>
       </c>
       <c r="G14" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -906,15 +906,15 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>148670967.028029</v>
+        <v>148670967.0280294</v>
       </c>
       <c r="F15" t="n">
-        <v>4485625.666616</v>
+        <v>4485625.666616016</v>
       </c>
       <c r="G15" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -938,15 +938,15 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20092135.139181</v>
+        <v>20092135.13918089</v>
       </c>
       <c r="F16" t="n">
-        <v>20092135.139181</v>
+        <v>20092135.13918089</v>
       </c>
       <c r="G16" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -970,15 +970,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>672879474.421062</v>
+        <v>672879474.421064</v>
       </c>
       <c r="F17" t="n">
-        <v>672879474.421062</v>
+        <v>672879474.421064</v>
       </c>
       <c r="G17" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,15 +1002,15 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>442357075.055287</v>
+        <v>442357075.055285</v>
       </c>
       <c r="F18" t="n">
-        <v>442357075.055287</v>
+        <v>442357075.055285</v>
       </c>
       <c r="G18" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1034,15 +1034,15 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>546581869.1566581</v>
+        <v>546581869.1566545</v>
       </c>
       <c r="F19" t="n">
-        <v>546581869.1566581</v>
+        <v>546581869.1566545</v>
       </c>
       <c r="G19" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1066,15 +1066,15 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1292338.269505</v>
+        <v>1292338.269504998</v>
       </c>
       <c r="F20" t="n">
-        <v>42121.46322</v>
+        <v>42121.46322000006</v>
       </c>
       <c r="G20" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1098,15 +1098,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>65915634.500763</v>
+        <v>65915634.50076288</v>
       </c>
       <c r="F21" t="n">
-        <v>1988220.664187</v>
+        <v>1988220.664186987</v>
       </c>
       <c r="G21" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1130,15 +1130,15 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>66505937.12241501</v>
+        <v>66505937.12241478</v>
       </c>
       <c r="F22" t="n">
-        <v>2010917.167234</v>
+        <v>2010917.167233995</v>
       </c>
       <c r="G22" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1162,15 +1162,15 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5780.652791</v>
+        <v>5780.652791000007</v>
       </c>
       <c r="F23" t="n">
-        <v>5780.652791</v>
+        <v>5780.652791000007</v>
       </c>
       <c r="G23" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1194,15 +1194,15 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>208712303.153657</v>
+        <v>208712303.1536568</v>
       </c>
       <c r="F24" t="n">
-        <v>208712303.153657</v>
+        <v>208712303.1536568</v>
       </c>
       <c r="G24" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1226,15 +1226,15 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>208712302.65264</v>
+        <v>208712302.6526396</v>
       </c>
       <c r="F25" t="n">
-        <v>208712302.65264</v>
+        <v>208712302.6526396</v>
       </c>
       <c r="G25" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1258,15 +1258,15 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>52178075.663192</v>
+        <v>52178075.66319197</v>
       </c>
       <c r="F26" t="n">
-        <v>52178075.663192</v>
+        <v>52178075.66319197</v>
       </c>
       <c r="G26" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1290,15 +1290,15 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5780.89309</v>
+        <v>5780.893089999995</v>
       </c>
       <c r="F27" t="n">
-        <v>5780.89309</v>
+        <v>5780.893089999995</v>
       </c>
       <c r="G27" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1322,15 +1322,15 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1091548045.319277</v>
+        <v>1091548045.319278</v>
       </c>
       <c r="F28" t="n">
-        <v>1091548045.319277</v>
+        <v>1091548045.319278</v>
       </c>
       <c r="G28" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1354,15 +1354,15 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1091548045.28898</v>
+        <v>1091548045.288979</v>
       </c>
       <c r="F29" t="n">
-        <v>1091548045.28898</v>
+        <v>1091548045.288979</v>
       </c>
       <c r="G29" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1386,15 +1386,15 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>272887011.32227</v>
+        <v>272887011.3222693</v>
       </c>
       <c r="F30" t="n">
-        <v>272887011.32227</v>
+        <v>272887011.3222693</v>
       </c>
       <c r="G30" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1418,15 +1418,15 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>114693320.459113</v>
+        <v>114693320.4591131</v>
       </c>
       <c r="F31" t="n">
-        <v>114693320.459113</v>
+        <v>114693320.4591131</v>
       </c>
       <c r="G31" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1450,15 +1450,15 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>296974997.834066</v>
+        <v>296974997.8340663</v>
       </c>
       <c r="F32" t="n">
-        <v>296974997.834066</v>
+        <v>296974997.8340663</v>
       </c>
       <c r="G32" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1482,15 +1482,15 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1984600382.86086</v>
+        <v>1984600382.860862</v>
       </c>
       <c r="F33" t="n">
-        <v>1984600382.86086</v>
+        <v>1984600382.860862</v>
       </c>
       <c r="G33" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1514,15 +1514,15 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37138176.915929</v>
+        <v>37138176.91592892</v>
       </c>
       <c r="F34" t="n">
-        <v>37138176.915929</v>
+        <v>37138176.91592892</v>
       </c>
       <c r="G34" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1546,15 +1546,15 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>170168351.384194</v>
+        <v>170168351.3841942</v>
       </c>
       <c r="F35" t="n">
-        <v>170168351.384194</v>
+        <v>170168351.3841942</v>
       </c>
       <c r="G35" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1578,15 +1578,15 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>19238757.101531</v>
+        <v>19238757.10153096</v>
       </c>
       <c r="F36" t="n">
-        <v>19238757.101531</v>
+        <v>19238757.10153096</v>
       </c>
       <c r="G36" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1610,15 +1610,15 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18781462.759436</v>
+        <v>18781462.75943602</v>
       </c>
       <c r="F37" t="n">
-        <v>18781462.759436</v>
+        <v>18781462.75943602</v>
       </c>
       <c r="G37" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1642,15 +1642,15 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>190.198759</v>
+        <v>190.1987589999989</v>
       </c>
       <c r="F38" t="n">
-        <v>190.198759</v>
+        <v>190.1987589999989</v>
       </c>
       <c r="G38" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1674,15 +1674,15 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>987609562.1366019</v>
+        <v>987609562.1366006</v>
       </c>
       <c r="F39" t="n">
-        <v>987609562.1366019</v>
+        <v>987609562.1366006</v>
       </c>
       <c r="G39" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1706,15 +1706,15 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>109794470.102181</v>
+        <v>109794470.1021812</v>
       </c>
       <c r="F40" t="n">
-        <v>109794470.102181</v>
+        <v>109794470.1021812</v>
       </c>
       <c r="G40" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1738,15 +1738,15 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5779.194739</v>
+        <v>5779.194739000008</v>
       </c>
       <c r="F41" t="n">
-        <v>5779.194739</v>
+        <v>5779.194739000008</v>
       </c>
       <c r="G41" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1770,15 +1770,15 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1984600387.351447</v>
+        <v>1984600387.351453</v>
       </c>
       <c r="F42" t="n">
-        <v>1984600387.351447</v>
+        <v>1984600387.351453</v>
       </c>
       <c r="G42" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1802,15 +1802,15 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1984600382.86086</v>
+        <v>1984600382.860862</v>
       </c>
       <c r="F43" t="n">
-        <v>1984600382.86086</v>
+        <v>1984600382.860862</v>
       </c>
       <c r="G43" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1834,15 +1834,15 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>86487.361695</v>
+        <v>86487.36169499997</v>
       </c>
       <c r="F44" t="n">
-        <v>8980.162054999999</v>
+        <v>8980.162054999986</v>
       </c>
       <c r="G44" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1866,15 +1866,15 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43758594.499334</v>
+        <v>43758594.49933394</v>
       </c>
       <c r="F45" t="n">
-        <v>5081008.364162</v>
+        <v>5081008.364161992</v>
       </c>
       <c r="G45" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1898,15 +1898,15 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43206888.864742</v>
+        <v>43206888.86474216</v>
       </c>
       <c r="F46" t="n">
-        <v>5011012.84572</v>
+        <v>5011012.845720014</v>
       </c>
       <c r="G46" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1930,15 +1930,15 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4561122.207727999</v>
+        <v>4561122.207727966</v>
       </c>
       <c r="F47" t="n">
-        <v>4561122.207727999</v>
+        <v>4561122.207727966</v>
       </c>
       <c r="G47" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1962,15 +1962,15 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>463489373.535154</v>
+        <v>463489373.5351553</v>
       </c>
       <c r="F48" t="n">
-        <v>463489373.535154</v>
+        <v>463489373.5351553</v>
       </c>
       <c r="G48" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1994,15 +1994,15 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>354473116.862617</v>
+        <v>354473116.8626179</v>
       </c>
       <c r="F49" t="n">
-        <v>354473116.862617</v>
+        <v>354473116.8626179</v>
       </c>
       <c r="G49" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2026,15 +2026,15 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>439083389.742903</v>
+        <v>439083389.7429044</v>
       </c>
       <c r="F50" t="n">
-        <v>439083389.742903</v>
+        <v>439083389.7429044</v>
       </c>
       <c r="G50" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2058,15 +2058,15 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5780.900322</v>
+        <v>5780.900322000012</v>
       </c>
       <c r="F51" t="n">
-        <v>5780.900322</v>
+        <v>5780.900322000012</v>
       </c>
       <c r="G51" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2090,15 +2090,15 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>8040172275.147216</v>
+        <v>8040172275.147228</v>
       </c>
       <c r="F52" t="n">
-        <v>8040172275.147216</v>
+        <v>8040172275.147228</v>
       </c>
       <c r="G52" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2122,15 +2122,15 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8040172275.135118</v>
+        <v>8040172275.135091</v>
       </c>
       <c r="F53" t="n">
-        <v>8040172275.135118</v>
+        <v>8040172275.135092</v>
       </c>
       <c r="G53" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2154,15 +2154,15 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1032678.320744</v>
+        <v>1032678.320743998</v>
       </c>
       <c r="F54" t="n">
-        <v>1032678.320744</v>
+        <v>1032678.320743998</v>
       </c>
       <c r="G54" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2186,15 +2186,15 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6423204.008308</v>
+        <v>6423204.008308019</v>
       </c>
       <c r="F55" t="n">
-        <v>6423204.008308</v>
+        <v>6423204.008308019</v>
       </c>
       <c r="G55" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2218,15 +2218,15 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4026663.104239</v>
+        <v>4026663.104238983</v>
       </c>
       <c r="F56" t="n">
-        <v>4026663.104239</v>
+        <v>4026663.104238983</v>
       </c>
       <c r="G56" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2250,15 +2250,15 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>574603795.88025</v>
+        <v>574603795.8802469</v>
       </c>
       <c r="F57" t="n">
-        <v>574603795.88025</v>
+        <v>574603795.8802469</v>
       </c>
       <c r="G57" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2282,15 +2282,15 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5046495833.154925</v>
+        <v>5046495833.154931</v>
       </c>
       <c r="F58" t="n">
-        <v>5046495833.154927</v>
+        <v>5046495833.154933</v>
       </c>
       <c r="G58" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2314,15 +2314,15 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1525440171.32853</v>
+        <v>1525440171.328525</v>
       </c>
       <c r="F59" t="n">
-        <v>1525440171.32853</v>
+        <v>1525440171.328525</v>
       </c>
       <c r="G59" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2346,15 +2346,15 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>111049024.938836</v>
+        <v>111049024.9388358</v>
       </c>
       <c r="F60" t="n">
-        <v>111049024.938836</v>
+        <v>111049024.9388358</v>
       </c>
       <c r="G60" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2378,15 +2378,15 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>612573561.76421</v>
+        <v>612573561.7642074</v>
       </c>
       <c r="F61" t="n">
-        <v>612573561.76421</v>
+        <v>612573561.7642074</v>
       </c>
       <c r="G61" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2410,15 +2410,15 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>69589833.58714101</v>
+        <v>69589833.58714108</v>
       </c>
       <c r="F62" t="n">
-        <v>69589833.58714101</v>
+        <v>69589833.58714108</v>
       </c>
       <c r="G62" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2442,15 +2442,15 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>694889966.760725</v>
+        <v>694889966.7607272</v>
       </c>
       <c r="F63" t="n">
-        <v>694889966.760725</v>
+        <v>694889966.7607272</v>
       </c>
       <c r="G63" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2474,15 +2474,15 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>23762765.864873</v>
+        <v>23762765.86487305</v>
       </c>
       <c r="F64" t="n">
-        <v>23762765.864873</v>
+        <v>23762765.86487305</v>
       </c>
       <c r="G64" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2506,15 +2506,15 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13618735.631327</v>
+        <v>13618735.63132695</v>
       </c>
       <c r="F65" t="n">
-        <v>13618735.631327</v>
+        <v>13618735.63132695</v>
       </c>
       <c r="G65" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2538,15 +2538,15 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>384344492.742377</v>
+        <v>384344492.7423762</v>
       </c>
       <c r="F66" t="n">
-        <v>384344492.742377</v>
+        <v>384344492.7423762</v>
       </c>
       <c r="G66" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2570,15 +2570,15 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40228074.58788</v>
+        <v>40228074.58788001</v>
       </c>
       <c r="F67" t="n">
-        <v>40228074.58788</v>
+        <v>40228074.58788001</v>
       </c>
       <c r="G67" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2602,15 +2602,15 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>183139835.656883</v>
+        <v>183139835.6568828</v>
       </c>
       <c r="F68" t="n">
-        <v>183139835.656883</v>
+        <v>183139835.6568828</v>
       </c>
       <c r="G68" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2634,15 +2634,15 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>20838148.108411</v>
+        <v>20838148.10841101</v>
       </c>
       <c r="F69" t="n">
-        <v>20838148.108411</v>
+        <v>20838148.10841101</v>
       </c>
       <c r="G69" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2666,15 +2666,15 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>20289186.76052</v>
+        <v>20289186.76051997</v>
       </c>
       <c r="F70" t="n">
-        <v>20289186.76052</v>
+        <v>20289186.76051997</v>
       </c>
       <c r="G70" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2698,15 +2698,15 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>233.644988</v>
+        <v>233.6449880000007</v>
       </c>
       <c r="F71" t="n">
-        <v>233.644988</v>
+        <v>233.6449880000007</v>
       </c>
       <c r="G71" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2730,15 +2730,15 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>578407629.894897</v>
+        <v>578407629.8948984</v>
       </c>
       <c r="F72" t="n">
-        <v>22091340.713599</v>
+        <v>22091340.71359896</v>
       </c>
       <c r="G72" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2762,15 +2762,15 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>725826.193074</v>
+        <v>725826.1930739988</v>
       </c>
       <c r="F73" t="n">
-        <v>23452.209249</v>
+        <v>23452.20924900001</v>
       </c>
       <c r="G73" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2794,15 +2794,15 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>109859390.834709</v>
+        <v>109859390.8347089</v>
       </c>
       <c r="F74" t="n">
-        <v>3313701.107058</v>
+        <v>3313701.107058006</v>
       </c>
       <c r="G74" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2826,15 +2826,15 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>109719198.453697</v>
+        <v>109719198.4536971</v>
       </c>
       <c r="F75" t="n">
-        <v>3312545.426084</v>
+        <v>3312545.426083989</v>
       </c>
       <c r="G75" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>151749.415116</v>
+        <v>151749.4151160012</v>
       </c>
       <c r="F76" t="n">
         <v>5778.558787</v>
@@ -2866,7 +2866,7 @@
       <c r="G76" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2890,15 +2890,15 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>578407757.725837</v>
+        <v>578407757.7258358</v>
       </c>
       <c r="F77" t="n">
-        <v>22091345.556863</v>
+        <v>22091345.55686295</v>
       </c>
       <c r="G77" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2922,15 +2922,15 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5780.91146</v>
+        <v>5780.911459999997</v>
       </c>
       <c r="F78" t="n">
-        <v>5780.91146</v>
+        <v>5780.911459999997</v>
       </c>
       <c r="G78" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2954,15 +2954,15 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>262518943.130504</v>
+        <v>262518943.1305039</v>
       </c>
       <c r="F79" t="n">
-        <v>262518943.130504</v>
+        <v>262518943.1305039</v>
       </c>
       <c r="G79" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2986,15 +2986,15 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>362189027.577763</v>
+        <v>362189027.5777628</v>
       </c>
       <c r="F80" t="n">
-        <v>362189027.577763</v>
+        <v>362189027.5777628</v>
       </c>
       <c r="G80" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3018,15 +3018,15 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5780.856</v>
+        <v>5780.855999999984</v>
       </c>
       <c r="F81" t="n">
-        <v>5780.856</v>
+        <v>5780.855999999984</v>
       </c>
       <c r="G81" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3050,15 +3050,15 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>14522072128.1827</v>
+        <v>14522072128.18274</v>
       </c>
       <c r="F82" t="n">
-        <v>14522072128.1827</v>
+        <v>14522072128.18274</v>
       </c>
       <c r="G82" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3082,15 +3082,15 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>563641718.429812</v>
+        <v>563641718.4298136</v>
       </c>
       <c r="F83" t="n">
-        <v>563641718.429812</v>
+        <v>563641718.4298136</v>
       </c>
       <c r="G83" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3114,15 +3114,15 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>8040172275.147216</v>
+        <v>8040172275.147228</v>
       </c>
       <c r="F84" t="n">
-        <v>8040172275.147216</v>
+        <v>8040172275.147228</v>
       </c>
       <c r="G84" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3146,15 +3146,15 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>612573561.76421</v>
+        <v>612573561.7642074</v>
       </c>
       <c r="F85" t="n">
-        <v>612573561.76421</v>
+        <v>612573561.7642074</v>
       </c>
       <c r="G85" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3178,15 +3178,15 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4560680194.624445</v>
+        <v>4560680194.624458</v>
       </c>
       <c r="F86" t="n">
-        <v>4560680194.624445</v>
+        <v>4560680194.624458</v>
       </c>
       <c r="G86" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
         <v>14354433241.11768</v>
       </c>
       <c r="F87" t="n">
-        <v>14354433241.11769</v>
+        <v>14354433241.11768</v>
       </c>
       <c r="G87" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3242,15 +3242,15 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>577365491.1303049</v>
+        <v>577365491.1303028</v>
       </c>
       <c r="F88" t="n">
-        <v>577365491.1303049</v>
+        <v>577365491.1303028</v>
       </c>
       <c r="G88" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3274,15 +3274,15 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5780.875035</v>
+        <v>5780.875035000023</v>
       </c>
       <c r="F89" t="n">
-        <v>5780.875035</v>
+        <v>5780.875035000023</v>
       </c>
       <c r="G89" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3309,12 +3309,12 @@
         <v>14354433241.11768</v>
       </c>
       <c r="F90" t="n">
-        <v>14354433241.11769</v>
+        <v>14354433241.11768</v>
       </c>
       <c r="G90" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3338,15 +3338,15 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>11600135.012425</v>
+        <v>11600135.01242502</v>
       </c>
       <c r="F91" t="n">
-        <v>11600135.012425</v>
+        <v>11600135.01242502</v>
       </c>
       <c r="G91" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3370,15 +3370,15 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>145123904.302817</v>
+        <v>145123904.3028176</v>
       </c>
       <c r="F92" t="n">
-        <v>145123904.302817</v>
+        <v>145123904.3028176</v>
       </c>
       <c r="G92" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3402,15 +3402,15 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5781.64939</v>
+        <v>5781.649390000008</v>
       </c>
       <c r="F93" t="n">
-        <v>5781.64939</v>
+        <v>5781.649390000008</v>
       </c>
       <c r="G93" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3434,15 +3434,15 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>145123904.302817</v>
+        <v>145123904.3028176</v>
       </c>
       <c r="F94" t="n">
-        <v>145123904.302817</v>
+        <v>145123904.3028176</v>
       </c>
       <c r="G94" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3466,15 +3466,15 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5780.532273</v>
+        <v>5780.532272999981</v>
       </c>
       <c r="F95" t="n">
-        <v>5780.532273</v>
+        <v>5780.532272999981</v>
       </c>
       <c r="G95" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3498,15 +3498,15 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>145123905.05526</v>
+        <v>145123905.0552601</v>
       </c>
       <c r="F96" t="n">
-        <v>145123905.05526</v>
+        <v>145123905.0552601</v>
       </c>
       <c r="G96" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3530,15 +3530,15 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>118631399.955505</v>
+        <v>118631399.9555048</v>
       </c>
       <c r="F97" t="n">
-        <v>118631399.955505</v>
+        <v>118631399.9555048</v>
       </c>
       <c r="G97" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3562,15 +3562,15 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>293420125.151217</v>
+        <v>293420125.1512156</v>
       </c>
       <c r="F98" t="n">
-        <v>293420125.151217</v>
+        <v>293420125.1512156</v>
       </c>
       <c r="G98" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3594,15 +3594,15 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1714698.733957</v>
+        <v>1714698.733956999</v>
       </c>
       <c r="F99" t="n">
-        <v>1714698.733957</v>
+        <v>1714698.733956999</v>
       </c>
       <c r="G99" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3626,15 +3626,15 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>498651.803212</v>
+        <v>498651.8032120001</v>
       </c>
       <c r="F100" t="n">
-        <v>498651.803212</v>
+        <v>498651.8032120001</v>
       </c>
       <c r="G100" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3658,15 +3658,15 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5780.842751</v>
+        <v>5780.842751000006</v>
       </c>
       <c r="F101" t="n">
-        <v>5780.842751</v>
+        <v>5780.842751000006</v>
       </c>
       <c r="G101" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3690,15 +3690,15 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>493636458.056113</v>
+        <v>493636458.0561118</v>
       </c>
       <c r="F102" t="n">
-        <v>493636458.056113</v>
+        <v>493636458.0561118</v>
       </c>
       <c r="G102" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3722,15 +3722,15 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>291070667.811375</v>
+        <v>291070667.8113735</v>
       </c>
       <c r="F103" t="n">
-        <v>291070667.811375</v>
+        <v>291070667.8113735</v>
       </c>
       <c r="G103" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="G104" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3786,15 +3786,15 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>122155128.538976</v>
+        <v>122155128.5389761</v>
       </c>
       <c r="F105" t="n">
-        <v>122155128.538976</v>
+        <v>122155128.5389761</v>
       </c>
       <c r="G105" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3818,15 +3818,15 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>122155128.538977</v>
+        <v>122155128.5389771</v>
       </c>
       <c r="F106" t="n">
-        <v>122155128.538977</v>
+        <v>122155128.5389771</v>
       </c>
       <c r="G106" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3850,15 +3850,15 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15404099.800732</v>
+        <v>15404099.80073195</v>
       </c>
       <c r="F107" t="n">
-        <v>15404099.800732</v>
+        <v>15404099.80073195</v>
       </c>
       <c r="G107" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3882,15 +3882,15 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>616972450.095875</v>
+        <v>616972450.0958759</v>
       </c>
       <c r="F108" t="n">
-        <v>616972450.095875</v>
+        <v>616972450.0958759</v>
       </c>
       <c r="G108" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3914,15 +3914,15 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>7068336009.968955</v>
+        <v>7068336009.96896</v>
       </c>
       <c r="F109" t="n">
-        <v>7068336009.968955</v>
+        <v>7068336009.968961</v>
       </c>
       <c r="G109" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3946,15 +3946,15 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3578438542.505231</v>
+        <v>3578438542.505238</v>
       </c>
       <c r="F110" t="n">
-        <v>3578438542.505231</v>
+        <v>3578438542.505238</v>
       </c>
       <c r="G110" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3978,15 +3978,15 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>136859572.909055</v>
+        <v>136859572.909054</v>
       </c>
       <c r="F111" t="n">
-        <v>136859572.909055</v>
+        <v>136859572.909054</v>
       </c>
       <c r="G111" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4010,15 +4010,15 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1988567165.355318</v>
+        <v>1988567165.35531</v>
       </c>
       <c r="F112" t="n">
-        <v>1988567165.355318</v>
+        <v>1988567165.35531</v>
       </c>
       <c r="G112" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4042,15 +4042,15 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1985279307.932355</v>
+        <v>1985279307.932351</v>
       </c>
       <c r="F113" t="n">
-        <v>1985279307.932355</v>
+        <v>1985279307.932351</v>
       </c>
       <c r="G113" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4074,15 +4074,15 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>222903507.417565</v>
+        <v>222903507.4175647</v>
       </c>
       <c r="F114" t="n">
-        <v>222903507.417565</v>
+        <v>222903507.4175647</v>
       </c>
       <c r="G114" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4106,15 +4106,15 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>376613426.587804</v>
+        <v>376613426.5878036</v>
       </c>
       <c r="F115" t="n">
-        <v>376613426.587804</v>
+        <v>376613426.5878036</v>
       </c>
       <c r="G115" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4138,15 +4138,15 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>295323370.827032</v>
+        <v>295323370.8270324</v>
       </c>
       <c r="F116" t="n">
-        <v>295323370.827032</v>
+        <v>295323370.8270324</v>
       </c>
       <c r="G116" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4170,15 +4170,15 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>27624239.901522</v>
+        <v>27624239.90152198</v>
       </c>
       <c r="F117" t="n">
-        <v>27624239.901522</v>
+        <v>27624239.90152198</v>
       </c>
       <c r="G117" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4202,15 +4202,15 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4187521449.524563</v>
+        <v>4187521449.524578</v>
       </c>
       <c r="F118" t="n">
-        <v>4187521449.524563</v>
+        <v>4187521449.524578</v>
       </c>
       <c r="G118" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4234,15 +4234,15 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>117564106.302834</v>
+        <v>117564106.3028335</v>
       </c>
       <c r="F119" t="n">
-        <v>117564106.302834</v>
+        <v>117564106.3028335</v>
       </c>
       <c r="G119" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4266,15 +4266,15 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>539311140.493966</v>
+        <v>539311140.4939669</v>
       </c>
       <c r="F120" t="n">
-        <v>539311140.493966</v>
+        <v>539311140.4939669</v>
       </c>
       <c r="G120" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4298,15 +4298,15 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61068732.740031</v>
+        <v>61068732.74003113</v>
       </c>
       <c r="F121" t="n">
-        <v>61068732.740031</v>
+        <v>61068732.74003113</v>
       </c>
       <c r="G121" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       <c r="G122" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4362,15 +4362,15 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>594.649648</v>
+        <v>594.6496480000026</v>
       </c>
       <c r="F123" t="n">
-        <v>594.649648</v>
+        <v>594.6496480000026</v>
       </c>
       <c r="G123" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4394,15 +4394,15 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3614198881.296231</v>
+        <v>3614198881.296232</v>
       </c>
       <c r="F124" t="n">
-        <v>3614198881.296232</v>
+        <v>3614198881.296233</v>
       </c>
       <c r="G124" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4426,15 +4426,15 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>402405098.493213</v>
+        <v>402405098.493214</v>
       </c>
       <c r="F125" t="n">
-        <v>402405098.493213</v>
+        <v>402405098.493214</v>
       </c>
       <c r="G125" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4458,15 +4458,15 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5780.906688</v>
+        <v>5780.906688000006</v>
       </c>
       <c r="F126" t="n">
-        <v>5780.906688</v>
+        <v>5780.906688000006</v>
       </c>
       <c r="G126" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4490,15 +4490,15 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3768466659.826382</v>
+        <v>3768466659.826393</v>
       </c>
       <c r="F127" t="n">
-        <v>3768466659.826382</v>
+        <v>3768466659.826393</v>
       </c>
       <c r="G127" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4522,15 +4522,15 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3768466659.826746</v>
+        <v>3768466659.826742</v>
       </c>
       <c r="F128" t="n">
-        <v>3768466659.826746</v>
+        <v>3768466659.826742</v>
       </c>
       <c r="G128" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4554,15 +4554,15 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>419054789.697911</v>
+        <v>419054789.6979111</v>
       </c>
       <c r="F129" t="n">
-        <v>419054789.697911</v>
+        <v>419054789.6979111</v>
       </c>
       <c r="G129" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4586,15 +4586,15 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>82556245.51259901</v>
+        <v>82556245.51259914</v>
       </c>
       <c r="F130" t="n">
-        <v>82556245.51259901</v>
+        <v>82556245.51259914</v>
       </c>
       <c r="G130" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4618,15 +4618,15 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>41430436.816121</v>
+        <v>41430436.81612108</v>
       </c>
       <c r="F131" t="n">
-        <v>41430436.816121</v>
+        <v>41430436.81612108</v>
       </c>
       <c r="G131" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4650,15 +4650,15 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>220671579.097407</v>
+        <v>220671579.0974052</v>
       </c>
       <c r="F132" t="n">
-        <v>220671579.097407</v>
+        <v>220671579.0974052</v>
       </c>
       <c r="G132" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4682,15 +4682,15 @@
         </is>
       </c>
       <c r="E133" t="n">
+        <v>1008974349.644791</v>
+      </c>
+      <c r="F133" t="n">
         <v>1008974349.644792</v>
       </c>
-      <c r="F133" t="n">
-        <v>1008974349.644793</v>
-      </c>
       <c r="G133" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4714,15 +4714,15 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6259142.770151</v>
+        <v>6259142.770150994</v>
       </c>
       <c r="F134" t="n">
-        <v>6259142.770151</v>
+        <v>6259142.770150994</v>
       </c>
       <c r="G134" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4746,15 +4746,15 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28567875.71908</v>
+        <v>28567875.71908008</v>
       </c>
       <c r="F135" t="n">
-        <v>28567875.71908</v>
+        <v>28567875.71908008</v>
       </c>
       <c r="G135" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4778,15 +4778,15 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3182425.742533</v>
+        <v>3182425.742532989</v>
       </c>
       <c r="F136" t="n">
-        <v>3182425.742533</v>
+        <v>3182425.742532989</v>
       </c>
       <c r="G136" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4810,15 +4810,15 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3141611.041184</v>
+        <v>3141611.041184003</v>
       </c>
       <c r="F137" t="n">
-        <v>3141611.041184</v>
+        <v>3141611.041184003</v>
       </c>
       <c r="G137" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4842,15 +4842,15 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.79737210932025</v>
+        <v>36.79737210932186</v>
       </c>
       <c r="F138" t="n">
-        <v>36.79737210932025</v>
+        <v>36.79737210932186</v>
       </c>
       <c r="G138" t="n">
         <v>4999.543497847632</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4874,15 +4874,15 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5780.901896</v>
+        <v>5780.901896000011</v>
       </c>
       <c r="F139" t="n">
-        <v>5780.901896</v>
+        <v>5780.901896000011</v>
       </c>
       <c r="G139" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4906,15 +4906,15 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>5780.889590999999</v>
+        <v>5780.889591000018</v>
       </c>
       <c r="F140" t="n">
-        <v>5780.889590999999</v>
+        <v>5780.889591000018</v>
       </c>
       <c r="G140" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4938,15 +4938,15 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>908172615.927267</v>
+        <v>908172615.9272654</v>
       </c>
       <c r="F141" t="n">
-        <v>908172615.927267</v>
+        <v>908172615.9272654</v>
       </c>
       <c r="G141" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4970,15 +4970,15 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>908172615.8997461</v>
+        <v>908172615.8997487</v>
       </c>
       <c r="F142" t="n">
-        <v>908172615.8997461</v>
+        <v>908172615.8997487</v>
       </c>
       <c r="G142" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5002,15 +5002,15 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>100801733.745101</v>
+        <v>100801733.7451014</v>
       </c>
       <c r="F143" t="n">
-        <v>100801733.745101</v>
+        <v>100801733.7451014</v>
       </c>
       <c r="G143" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5034,15 +5034,15 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>4087.728258</v>
+        <v>4087.728258000005</v>
       </c>
       <c r="F144" t="n">
-        <v>4087.728258</v>
+        <v>4087.728258000005</v>
       </c>
       <c r="G144" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H144" t="n">
+      <c r="H144" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5066,15 +5066,15 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>5780.91146</v>
+        <v>5780.911459999997</v>
       </c>
       <c r="F145" t="n">
-        <v>5780.91146</v>
+        <v>5780.911459999997</v>
       </c>
       <c r="G145" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H145" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5098,15 +5098,15 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>5780.934438</v>
+        <v>5780.934438000002</v>
       </c>
       <c r="F146" t="n">
-        <v>5780.934438</v>
+        <v>5780.934438000002</v>
       </c>
       <c r="G146" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H146" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5130,15 +5130,15 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>5392944006.615003</v>
+        <v>5392944006.614987</v>
       </c>
       <c r="F147" t="n">
-        <v>5392944006.615004</v>
+        <v>5392944006.614988</v>
       </c>
       <c r="G147" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5162,15 +5162,15 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.474478</v>
+        <v>0.4744780000000038</v>
       </c>
       <c r="F148" t="n">
-        <v>0.474478</v>
+        <v>0.4744780000000038</v>
       </c>
       <c r="G148" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H148" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5194,15 +5194,15 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>380049733.519319</v>
+        <v>380049733.5193204</v>
       </c>
       <c r="F149" t="n">
-        <v>380049733.519319</v>
+        <v>380049733.5193204</v>
       </c>
       <c r="G149" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H149" t="n">
+      <c r="H149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5226,15 +5226,15 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>188793812.327654</v>
+        <v>188793812.3276527</v>
       </c>
       <c r="F150" t="n">
-        <v>188793812.327654</v>
+        <v>188793812.3276527</v>
       </c>
       <c r="G150" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H150" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5258,15 +5258,15 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1321517382.011117</v>
+        <v>1321517382.011115</v>
       </c>
       <c r="F151" t="n">
-        <v>1321517382.011117</v>
+        <v>1321517382.011115</v>
       </c>
       <c r="G151" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H151" t="n">
+      <c r="H151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5290,15 +5290,15 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>964859771.046284</v>
+        <v>964859771.0462797</v>
       </c>
       <c r="F152" t="n">
-        <v>964859771.046284</v>
+        <v>964859771.0462797</v>
       </c>
       <c r="G152" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5322,15 +5322,15 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25714520.466565</v>
+        <v>25714520.46656514</v>
       </c>
       <c r="F153" t="n">
-        <v>25714520.466565</v>
+        <v>25714520.46656514</v>
       </c>
       <c r="G153" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H153" t="n">
+      <c r="H153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5354,15 +5354,15 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>295748173.474421</v>
+        <v>295748173.4744225</v>
       </c>
       <c r="F154" t="n">
-        <v>295748173.474421</v>
+        <v>295748173.4744225</v>
       </c>
       <c r="G154" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H154" t="n">
+      <c r="H154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5386,15 +5386,15 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>940432534.949751</v>
+        <v>940432534.9497557</v>
       </c>
       <c r="F155" t="n">
-        <v>940432534.949751</v>
+        <v>940432534.9497557</v>
       </c>
       <c r="G155" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5418,15 +5418,15 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4003993897.901385</v>
+        <v>4003993897.901378</v>
       </c>
       <c r="F156" t="n">
-        <v>4003993897.901385</v>
+        <v>4003993897.901378</v>
       </c>
       <c r="G156" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H156" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5450,15 +5450,15 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1714551.670266</v>
+        <v>1714551.670265998</v>
       </c>
       <c r="F157" t="n">
-        <v>1714551.670266</v>
+        <v>1714551.670265998</v>
       </c>
       <c r="G157" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H157" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5482,15 +5482,15 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>459594544.953824</v>
+        <v>459594544.9538249</v>
       </c>
       <c r="F158" t="n">
-        <v>459594544.953824</v>
+        <v>459594544.9538249</v>
       </c>
       <c r="G158" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5514,15 +5514,15 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>384344492.742377</v>
+        <v>384344492.7423762</v>
       </c>
       <c r="F159" t="n">
-        <v>384344492.742377</v>
+        <v>384344492.7423762</v>
       </c>
       <c r="G159" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H159" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5546,15 +5546,15 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6887009820.690603</v>
+        <v>6887009820.690624</v>
       </c>
       <c r="F160" t="n">
-        <v>6887009820.690604</v>
+        <v>6887009820.690625</v>
       </c>
       <c r="G160" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H160" t="n">
+      <c r="H160" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5578,15 +5578,15 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4944426432.851089</v>
+        <v>4944426432.851086</v>
       </c>
       <c r="F161" t="n">
-        <v>4944426432.851089</v>
+        <v>4944426432.851086</v>
       </c>
       <c r="G161" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H161" t="n">
+      <c r="H161" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5610,15 +5610,15 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>11699304945.62211</v>
+        <v>11699304945.62214</v>
       </c>
       <c r="F162" t="n">
-        <v>11699304945.62211</v>
+        <v>11699304945.62214</v>
       </c>
       <c r="G162" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H162" t="n">
+      <c r="H162" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5642,15 +5642,15 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>5780.873988</v>
+        <v>5780.87398800001</v>
       </c>
       <c r="F163" t="n">
-        <v>5780.873988</v>
+        <v>5780.87398800001</v>
       </c>
       <c r="G163" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H163" t="n">
+      <c r="H163" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5674,15 +5674,15 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1145390437.809247</v>
+        <v>1145390437.809244</v>
       </c>
       <c r="F164" t="n">
-        <v>1145390437.809247</v>
+        <v>1145390437.809244</v>
       </c>
       <c r="G164" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H164" t="n">
+      <c r="H164" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5706,15 +5706,15 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>102276855.483743</v>
+        <v>102276855.4837429</v>
       </c>
       <c r="F165" t="n">
-        <v>102276855.483743</v>
+        <v>102276855.4837429</v>
       </c>
       <c r="G165" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H165" t="n">
+      <c r="H165" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5738,15 +5738,15 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2256921160.494171</v>
+        <v>2256921160.494175</v>
       </c>
       <c r="F166" t="n">
-        <v>2256921160.494171</v>
+        <v>2256921160.494175</v>
       </c>
       <c r="G166" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H166" t="n">
+      <c r="H166" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5770,15 +5770,15 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>499405444.1929361</v>
+        <v>499405444.1929367</v>
       </c>
       <c r="F167" t="n">
-        <v>499405444.1929361</v>
+        <v>499405444.1929367</v>
       </c>
       <c r="G167" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H167" t="n">
+      <c r="H167" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5802,15 +5802,15 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>263115763.135575</v>
+        <v>263115763.1355748</v>
       </c>
       <c r="F168" t="n">
-        <v>263115763.135575</v>
+        <v>263115763.1355748</v>
       </c>
       <c r="G168" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H168" t="n">
+      <c r="H168" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5834,15 +5834,15 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4560680194.624445</v>
+        <v>4560680194.624458</v>
       </c>
       <c r="F169" t="n">
-        <v>4560680194.624445</v>
+        <v>4560680194.624458</v>
       </c>
       <c r="G169" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H169" t="n">
+      <c r="H169" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5866,15 +5866,15 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2454545181.571551</v>
+        <v>2454545181.571545</v>
       </c>
       <c r="F170" t="n">
-        <v>2454545181.571551</v>
+        <v>2454545181.571545</v>
       </c>
       <c r="G170" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H170" t="n">
+      <c r="H170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5898,15 +5898,15 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1315778619.98228</v>
+        <v>1315778619.982278</v>
       </c>
       <c r="F171" t="n">
-        <v>1315778619.98228</v>
+        <v>1315778619.982278</v>
       </c>
       <c r="G171" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H171" t="n">
+      <c r="H171" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5930,15 +5930,15 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8557031503.620863</v>
+        <v>8557031503.620853</v>
       </c>
       <c r="F172" t="n">
-        <v>8557031503.620863</v>
+        <v>8557031503.620853</v>
       </c>
       <c r="G172" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H172" t="n">
+      <c r="H172" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5962,15 +5962,15 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2454545181.571551</v>
+        <v>2454545181.571545</v>
       </c>
       <c r="F173" t="n">
-        <v>2454545181.571551</v>
+        <v>2454545181.571545</v>
       </c>
       <c r="G173" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H173" t="n">
+      <c r="H173" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5994,15 +5994,15 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>5780.900983</v>
+        <v>5780.900983000024</v>
       </c>
       <c r="F174" t="n">
-        <v>5780.900983</v>
+        <v>5780.900983000024</v>
       </c>
       <c r="G174" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H174" t="n">
+      <c r="H174" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6026,15 +6026,15 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2454545181.590696</v>
+        <v>2454545181.590695</v>
       </c>
       <c r="F175" t="n">
-        <v>2454545181.590696</v>
+        <v>2454545181.590695</v>
       </c>
       <c r="G175" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H175" t="n">
+      <c r="H175" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6058,15 +6058,15 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>5780.907907</v>
+        <v>5780.907906999993</v>
       </c>
       <c r="F176" t="n">
-        <v>5780.907907</v>
+        <v>5780.907906999993</v>
       </c>
       <c r="G176" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H176" t="n">
+      <c r="H176" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6090,15 +6090,15 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2450117572.938057</v>
+        <v>2450117572.938067</v>
       </c>
       <c r="F177" t="n">
-        <v>2450117572.938057</v>
+        <v>2450117572.938067</v>
       </c>
       <c r="G177" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H177" t="n">
+      <c r="H177" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6122,15 +6122,15 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>276731566.494773</v>
+        <v>276731566.4947726</v>
       </c>
       <c r="F178" t="n">
-        <v>276731566.494773</v>
+        <v>276731566.4947726</v>
       </c>
       <c r="G178" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H178" t="n">
+      <c r="H178" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6154,15 +6154,15 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2450117572.931461</v>
+        <v>2450117572.931458</v>
       </c>
       <c r="F179" t="n">
-        <v>2450117572.931461</v>
+        <v>2450117572.931458</v>
       </c>
       <c r="G179" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H179" t="n">
+      <c r="H179" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       <c r="G180" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H180" t="n">
+      <c r="H180" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6218,15 +6218,15 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>260890378.315817</v>
+        <v>260890378.3158181</v>
       </c>
       <c r="F181" t="n">
-        <v>260890378.315817</v>
+        <v>260890378.3158181</v>
       </c>
       <c r="G181" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H181" t="n">
+      <c r="H181" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6250,15 +6250,15 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>260890378.315817</v>
+        <v>260890378.3158181</v>
       </c>
       <c r="F182" t="n">
-        <v>260890378.315817</v>
+        <v>260890378.3158181</v>
       </c>
       <c r="G182" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H182" t="n">
+      <c r="H182" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6290,7 +6290,7 @@
       <c r="G183" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H183" t="n">
+      <c r="H183" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6314,15 +6314,15 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2088783032.68643</v>
+        <v>2088783032.686434</v>
       </c>
       <c r="F184" t="n">
-        <v>2088783032.68643</v>
+        <v>2088783032.686434</v>
       </c>
       <c r="G184" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H184" t="n">
+      <c r="H184" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6346,15 +6346,15 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1464265215.239126</v>
+        <v>1464265215.239128</v>
       </c>
       <c r="F185" t="n">
-        <v>1464265215.239126</v>
+        <v>1464265215.239128</v>
       </c>
       <c r="G185" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H185" t="n">
+      <c r="H185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6378,15 +6378,15 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>34793847.224462</v>
+        <v>34793847.22446198</v>
       </c>
       <c r="F186" t="n">
-        <v>34793847.224462</v>
+        <v>34793847.22446198</v>
       </c>
       <c r="G186" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H186" t="n">
+      <c r="H186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6410,15 +6410,15 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34795986.36263</v>
+        <v>34795986.36262999</v>
       </c>
       <c r="F187" t="n">
-        <v>34795986.36263</v>
+        <v>34795986.36262999</v>
       </c>
       <c r="G187" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H187" t="n">
+      <c r="H187" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6442,15 +6442,15 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3051360638.68176</v>
+        <v>3051360638.681756</v>
       </c>
       <c r="F188" t="n">
-        <v>3051360638.68176</v>
+        <v>3051360638.681756</v>
       </c>
       <c r="G188" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H188" t="n">
+      <c r="H188" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6474,15 +6474,15 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3050813893.450328</v>
+        <v>3050813893.450325</v>
       </c>
       <c r="F189" t="n">
-        <v>3050813893.450328</v>
+        <v>3050813893.450325</v>
       </c>
       <c r="G189" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H189" t="n">
+      <c r="H189" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
       <c r="G190" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H190" t="n">
+      <c r="H190" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6538,15 +6538,15 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1364435056.611307</v>
+        <v>1364435056.611312</v>
       </c>
       <c r="F191" t="n">
-        <v>1364435056.611307</v>
+        <v>1364435056.611312</v>
       </c>
       <c r="G191" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H191" t="n">
+      <c r="H191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6570,15 +6570,15 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1364435056.611307</v>
+        <v>1364435056.611312</v>
       </c>
       <c r="F192" t="n">
-        <v>1364435056.611307</v>
+        <v>1364435056.611312</v>
       </c>
       <c r="G192" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H192" t="n">
+      <c r="H192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6602,15 +6602,15 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>5778.647065</v>
+        <v>5778.647064999996</v>
       </c>
       <c r="F193" t="n">
-        <v>5778.647065</v>
+        <v>5778.647064999996</v>
       </c>
       <c r="G193" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H193" t="n">
+      <c r="H193" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6634,15 +6634,15 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3408149835.473628</v>
+        <v>3408149835.473621</v>
       </c>
       <c r="F194" t="n">
-        <v>3408149835.473628</v>
+        <v>3408149835.473621</v>
       </c>
       <c r="G194" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H194" t="n">
+      <c r="H194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6666,15 +6666,15 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>378367601.789774</v>
+        <v>378367601.7897731</v>
       </c>
       <c r="F195" t="n">
-        <v>378367601.789774</v>
+        <v>378367601.7897731</v>
       </c>
       <c r="G195" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H195" t="n">
+      <c r="H195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6698,15 +6698,15 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>3408149829.550961</v>
+        <v>3408149829.550972</v>
       </c>
       <c r="F196" t="n">
-        <v>3408149829.550961</v>
+        <v>3408149829.550972</v>
       </c>
       <c r="G196" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H196" t="n">
+      <c r="H196" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6730,15 +6730,15 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>355265.790533</v>
+        <v>355265.7905329997</v>
       </c>
       <c r="F197" t="n">
-        <v>10448.284343</v>
+        <v>10448.28434300001</v>
       </c>
       <c r="G197" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H197" t="n">
+      <c r="H197" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6762,15 +6762,15 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>197746903.502464</v>
+        <v>197746903.5024641</v>
       </c>
       <c r="F198" t="n">
-        <v>5964661.992659</v>
+        <v>5964661.992659016</v>
       </c>
       <c r="G198" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H198" t="n">
+      <c r="H198" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6794,15 +6794,15 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>196855730.596497</v>
+        <v>196855730.5964972</v>
       </c>
       <c r="F199" t="n">
-        <v>5937054.804205</v>
+        <v>5937054.804205004</v>
       </c>
       <c r="G199" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H199" t="n">
+      <c r="H199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6826,15 +6826,15 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>272176647.467638</v>
+        <v>272176647.4676378</v>
       </c>
       <c r="F200" t="n">
-        <v>272176647.467638</v>
+        <v>272176647.4676378</v>
       </c>
       <c r="G200" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H200" t="n">
+      <c r="H200" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6858,15 +6858,15 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>624707970.7082549</v>
+        <v>624707970.7082546</v>
       </c>
       <c r="F201" t="n">
-        <v>624707970.7082549</v>
+        <v>624707970.7082546</v>
       </c>
       <c r="G201" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H201" t="n">
+      <c r="H201" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6890,15 +6890,15 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>577365491.1303049</v>
+        <v>577365491.1303028</v>
       </c>
       <c r="F202" t="n">
-        <v>577365491.1303049</v>
+        <v>577365491.1303028</v>
       </c>
       <c r="G202" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H202" t="n">
+      <c r="H202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6922,15 +6922,15 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>260890378.315817</v>
+        <v>260890378.3158181</v>
       </c>
       <c r="F203" t="n">
-        <v>260890378.315817</v>
+        <v>260890378.3158181</v>
       </c>
       <c r="G203" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H203" t="n">
+      <c r="H203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6954,15 +6954,15 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>6102174532.132099</v>
+        <v>6102174532.132122</v>
       </c>
       <c r="F204" t="n">
-        <v>6102174532.1321</v>
+        <v>6102174532.132123</v>
       </c>
       <c r="G204" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H204" t="n">
+      <c r="H204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6986,15 +6986,15 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1658035718.328077</v>
+        <v>1658035718.32808</v>
       </c>
       <c r="F205" t="n">
-        <v>1658035718.328077</v>
+        <v>1658035718.32808</v>
       </c>
       <c r="G205" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H205" t="n">
+      <c r="H205" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7018,15 +7018,15 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>5781.201029</v>
+        <v>5781.201029000014</v>
       </c>
       <c r="F206" t="n">
-        <v>5781.201029</v>
+        <v>5781.201029000014</v>
       </c>
       <c r="G206" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H206" t="n">
+      <c r="H206" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7050,15 +7050,15 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>491667112.2202231</v>
+        <v>491667112.2202246</v>
       </c>
       <c r="F207" t="n">
-        <v>491667112.2202231</v>
+        <v>491667112.2202246</v>
       </c>
       <c r="G207" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H207" t="n">
+      <c r="H207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7082,15 +7082,15 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5787.142326</v>
+        <v>5787.142325999981</v>
       </c>
       <c r="F208" t="n">
-        <v>5787.142326</v>
+        <v>5787.142325999981</v>
       </c>
       <c r="G208" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H208" t="n">
+      <c r="H208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7114,15 +7114,15 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>9181499420.830608</v>
+        <v>9181499420.830542</v>
       </c>
       <c r="F209" t="n">
-        <v>9181499420.830608</v>
+        <v>9181499420.830542</v>
       </c>
       <c r="G209" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H209" t="n">
+      <c r="H209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7146,15 +7146,15 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>208472923.37142</v>
+        <v>208472923.3714198</v>
       </c>
       <c r="F210" t="n">
-        <v>208472923.37142</v>
+        <v>208472923.3714198</v>
       </c>
       <c r="G210" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H210" t="n">
+      <c r="H210" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7178,15 +7178,15 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>370202515.467367</v>
+        <v>370202515.4673662</v>
       </c>
       <c r="F211" t="n">
-        <v>370202515.467368</v>
+        <v>370202515.4673672</v>
       </c>
       <c r="G211" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H211" t="n">
+      <c r="H211" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7210,15 +7210,15 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>793556506.6054809</v>
+        <v>793556506.6054854</v>
       </c>
       <c r="F212" t="n">
-        <v>793556506.6054809</v>
+        <v>793556506.6054854</v>
       </c>
       <c r="G212" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H212" t="n">
+      <c r="H212" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7242,15 +7242,15 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>4026663.104239</v>
+        <v>4026663.104238983</v>
       </c>
       <c r="F213" t="n">
-        <v>4026663.104239</v>
+        <v>4026663.104238983</v>
       </c>
       <c r="G213" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H213" t="n">
+      <c r="H213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7274,15 +7274,15 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2213350.537127</v>
+        <v>2213350.537127004</v>
       </c>
       <c r="F214" t="n">
-        <v>2213350.537127</v>
+        <v>2213350.537127004</v>
       </c>
       <c r="G214" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H214" t="n">
+      <c r="H214" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7306,15 +7306,15 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54885815.990755</v>
+        <v>54885815.99075487</v>
       </c>
       <c r="F215" t="n">
-        <v>54885815.990755</v>
+        <v>54885815.99075487</v>
       </c>
       <c r="G215" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H215" t="n">
+      <c r="H215" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7338,15 +7338,15 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1987511236.25255</v>
+        <v>1987511236.252552</v>
       </c>
       <c r="F216" t="n">
-        <v>1987511236.25255</v>
+        <v>1987511236.252552</v>
       </c>
       <c r="G216" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H216" t="n">
+      <c r="H216" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7370,15 +7370,15 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>272303957.835553</v>
+        <v>272303957.8355529</v>
       </c>
       <c r="F217" t="n">
-        <v>272303957.835553</v>
+        <v>272303957.8355529</v>
       </c>
       <c r="G217" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H217" t="n">
+      <c r="H217" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7402,15 +7402,15 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1364435056.611307</v>
+        <v>1364435056.611312</v>
       </c>
       <c r="F218" t="n">
-        <v>1364435056.611307</v>
+        <v>1364435056.611312</v>
       </c>
       <c r="G218" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H218" t="n">
+      <c r="H218" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7434,15 +7434,15 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>3786517431.340709</v>
+        <v>3786517431.340714</v>
       </c>
       <c r="F219" t="n">
-        <v>3786517431.340707</v>
+        <v>3786517431.340712</v>
       </c>
       <c r="G219" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H219" t="n">
+      <c r="H219" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7466,15 +7466,15 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>30076698.38798781</v>
+        <v>30076698.38798777</v>
       </c>
       <c r="F220" t="n">
-        <v>30076698.38798781</v>
+        <v>30076698.38798777</v>
       </c>
       <c r="G220" t="n">
         <v>5001.606192893401</v>
       </c>
-      <c r="H220" t="n">
+      <c r="H220" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7498,15 +7498,15 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>294739832.429833</v>
+        <v>294739832.4298321</v>
       </c>
       <c r="F221" t="n">
-        <v>294739832.429833</v>
+        <v>294739832.4298321</v>
       </c>
       <c r="G221" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H221" t="n">
+      <c r="H221" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7530,15 +7530,15 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>131633909.712805</v>
+        <v>131633909.7128049</v>
       </c>
       <c r="F222" t="n">
-        <v>131633909.712805</v>
+        <v>131633909.7128049</v>
       </c>
       <c r="G222" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H222" t="n">
+      <c r="H222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7562,15 +7562,15 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>231579589.07733</v>
+        <v>231579589.0773299</v>
       </c>
       <c r="F223" t="n">
-        <v>231579589.07733</v>
+        <v>231579589.0773299</v>
       </c>
       <c r="G223" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H223" t="n">
+      <c r="H223" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7594,15 +7594,15 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>70914158.503126</v>
+        <v>70914158.50312622</v>
       </c>
       <c r="F224" t="n">
-        <v>70914158.503126</v>
+        <v>70914158.50312622</v>
       </c>
       <c r="G224" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H224" t="n">
+      <c r="H224" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7626,15 +7626,15 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>325879851.460604</v>
+        <v>325879851.4606035</v>
       </c>
       <c r="F225" t="n">
-        <v>325879851.460604</v>
+        <v>325879851.4606035</v>
       </c>
       <c r="G225" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H225" t="n">
+      <c r="H225" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7658,15 +7658,15 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>37058016.430732</v>
+        <v>37058016.43073177</v>
       </c>
       <c r="F226" t="n">
-        <v>37058016.430732</v>
+        <v>37058016.43073177</v>
       </c>
       <c r="G226" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H226" t="n">
+      <c r="H226" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7690,15 +7690,15 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36142859.072691</v>
+        <v>36142859.07269093</v>
       </c>
       <c r="F227" t="n">
-        <v>36142859.072691</v>
+        <v>36142859.07269093</v>
       </c>
       <c r="G227" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H227" t="n">
+      <c r="H227" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7722,15 +7722,15 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>428.775945</v>
+        <v>428.7759449999996</v>
       </c>
       <c r="F228" t="n">
-        <v>428.775945</v>
+        <v>428.7759449999996</v>
       </c>
       <c r="G228" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H228" t="n">
+      <c r="H228" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7754,15 +7754,15 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1.277764</v>
+        <v>1.277763999999998</v>
       </c>
       <c r="F229" t="n">
-        <v>1.277764</v>
+        <v>1.277763999999998</v>
       </c>
       <c r="G229" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H229" t="n">
+      <c r="H229" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7786,15 +7786,15 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26552234.69273878</v>
+        <v>26552234.69273876</v>
       </c>
       <c r="F230" t="n">
-        <v>26552234.69273878</v>
+        <v>26552234.69273876</v>
       </c>
       <c r="G230" t="n">
         <v>4999.194837802551</v>
       </c>
-      <c r="H230" t="n">
+      <c r="H230" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7818,15 +7818,15 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>36912977.305021</v>
+        <v>36912977.30502098</v>
       </c>
       <c r="F231" t="n">
-        <v>36912977.305021</v>
+        <v>36912977.30502098</v>
       </c>
       <c r="G231" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H231" t="n">
+      <c r="H231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7850,15 +7850,15 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>169453004.34327</v>
+        <v>169453004.3432699</v>
       </c>
       <c r="F232" t="n">
-        <v>169453004.34327</v>
+        <v>169453004.3432699</v>
       </c>
       <c r="G232" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H232" t="n">
+      <c r="H232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7890,7 +7890,7 @@
       <c r="G233" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H233" t="n">
+      <c r="H233" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7914,15 +7914,15 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>18644308.004736</v>
+        <v>18644308.00473602</v>
       </c>
       <c r="F234" t="n">
-        <v>18644308.004736</v>
+        <v>18644308.00473602</v>
       </c>
       <c r="G234" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H234" t="n">
+      <c r="H234" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7946,15 +7946,15 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>120.708624</v>
+        <v>120.7086239999991</v>
       </c>
       <c r="F235" t="n">
-        <v>120.708624</v>
+        <v>120.7086239999991</v>
       </c>
       <c r="G235" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H235" t="n">
+      <c r="H235" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7978,15 +7978,15 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>108763899.93523</v>
+        <v>108763899.9352303</v>
       </c>
       <c r="F236" t="n">
-        <v>108763899.93523</v>
+        <v>108763899.9352303</v>
       </c>
       <c r="G236" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H236" t="n">
+      <c r="H236" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8010,15 +8010,15 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0.322049</v>
+        <v>0.3220489999999933</v>
       </c>
       <c r="F237" t="n">
-        <v>0.322049</v>
+        <v>0.3220489999999933</v>
       </c>
       <c r="G237" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H237" t="n">
+      <c r="H237" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8042,15 +8042,15 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1097404032.238815</v>
+        <v>1097404032.238819</v>
       </c>
       <c r="F238" t="n">
-        <v>1097404032.238817</v>
+        <v>1097404032.238821</v>
       </c>
       <c r="G238" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H238" t="n">
+      <c r="H238" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8074,15 +8074,15 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>4016603979.789526</v>
+        <v>4016603979.789523</v>
       </c>
       <c r="F239" t="n">
-        <v>4016603979.789526</v>
+        <v>4016603979.789523</v>
       </c>
       <c r="G239" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H239" t="n">
+      <c r="H239" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8106,15 +8106,15 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1778971449.530683</v>
+        <v>1778971449.530682</v>
       </c>
       <c r="F240" t="n">
-        <v>1778971449.530683</v>
+        <v>1778971449.530682</v>
       </c>
       <c r="G240" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H240" t="n">
+      <c r="H240" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8138,15 +8138,15 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1315778619.98228</v>
+        <v>1315778619.982278</v>
       </c>
       <c r="F241" t="n">
-        <v>1315778619.98228</v>
+        <v>1315778619.982278</v>
       </c>
       <c r="G241" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H241" t="n">
+      <c r="H241" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8170,15 +8170,15 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1658035718.328077</v>
+        <v>1658035718.32808</v>
       </c>
       <c r="F242" t="n">
-        <v>1658035718.328077</v>
+        <v>1658035718.32808</v>
       </c>
       <c r="G242" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H242" t="n">
+      <c r="H242" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8202,15 +8202,15 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5304167.516114</v>
+        <v>5304167.516113996</v>
       </c>
       <c r="F243" t="n">
-        <v>5304167.516114</v>
+        <v>5304167.516113996</v>
       </c>
       <c r="G243" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H243" t="n">
+      <c r="H243" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8234,15 +8234,15 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>87239898.6751599</v>
+        <v>87239898.67516011</v>
       </c>
       <c r="F244" t="n">
-        <v>87239898.6751599</v>
+        <v>87239898.67516011</v>
       </c>
       <c r="G244" t="n">
         <v>4998.787568922306</v>
       </c>
-      <c r="H244" t="n">
+      <c r="H244" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8266,15 +8266,15 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>15051989.50640573</v>
+        <v>15051989.50640577</v>
       </c>
       <c r="F245" t="n">
-        <v>15051989.50640573</v>
+        <v>15051989.50640577</v>
       </c>
       <c r="G245" t="n">
         <v>5001.242562696721</v>
       </c>
-      <c r="H245" t="n">
+      <c r="H245" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8298,15 +8298,15 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>15027762.66350797</v>
+        <v>15027762.66350796</v>
       </c>
       <c r="F246" t="n">
-        <v>15027762.66350797</v>
+        <v>15027762.66350796</v>
       </c>
       <c r="G246" t="n">
         <v>5001.242562696721</v>
       </c>
-      <c r="H246" t="n">
+      <c r="H246" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8330,15 +8330,15 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6995479.174614999</v>
+        <v>6995479.174614992</v>
       </c>
       <c r="F247" t="n">
-        <v>6995479.174614999</v>
+        <v>6995479.174614992</v>
       </c>
       <c r="G247" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H247" t="n">
+      <c r="H247" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8362,15 +8362,15 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>167638887.007763</v>
+        <v>167638887.0077621</v>
       </c>
       <c r="F248" t="n">
-        <v>167638887.007763</v>
+        <v>167638887.0077621</v>
       </c>
       <c r="G248" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H248" t="n">
+      <c r="H248" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8394,15 +8394,15 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>5781.201029</v>
+        <v>5781.201029000014</v>
       </c>
       <c r="F249" t="n">
-        <v>5781.201029</v>
+        <v>5781.201029000014</v>
       </c>
       <c r="G249" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H249" t="n">
+      <c r="H249" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8426,15 +8426,15 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>167638887.007763</v>
+        <v>167638887.0077621</v>
       </c>
       <c r="F250" t="n">
-        <v>167638887.007763</v>
+        <v>167638887.0077621</v>
       </c>
       <c r="G250" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H250" t="n">
+      <c r="H250" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8458,15 +8458,15 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24449429.497113</v>
+        <v>24449429.49711298</v>
       </c>
       <c r="F251" t="n">
-        <v>720549.745613</v>
+        <v>720549.7456129976</v>
       </c>
       <c r="G251" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H251" t="n">
+      <c r="H251" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8490,15 +8490,15 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>6159864.759605001</v>
+        <v>6159864.759604999</v>
       </c>
       <c r="F252" t="n">
-        <v>166576.753755</v>
+        <v>166576.7537549996</v>
       </c>
       <c r="G252" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H252" t="n">
+      <c r="H252" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8525,12 +8525,12 @@
         <v>60851349.543964</v>
       </c>
       <c r="F253" t="n">
-        <v>1614825.239975</v>
+        <v>1614825.239975002</v>
       </c>
       <c r="G253" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H253" t="n">
+      <c r="H253" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8554,15 +8554,15 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27207344.615831</v>
+        <v>27207344.61583104</v>
       </c>
       <c r="F254" t="n">
-        <v>723930.180213</v>
+        <v>723930.1802130025</v>
       </c>
       <c r="G254" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H254" t="n">
+      <c r="H254" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8586,15 +8586,15 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22692742.845978</v>
+        <v>22692742.84597794</v>
       </c>
       <c r="F255" t="n">
-        <v>601321.541534</v>
+        <v>601321.5415340016</v>
       </c>
       <c r="G255" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H255" t="n">
+      <c r="H255" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8618,15 +8618,15 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>44901921.821679</v>
+        <v>44901921.82167914</v>
       </c>
       <c r="F256" t="n">
-        <v>1192516.353404</v>
+        <v>1192516.353404002</v>
       </c>
       <c r="G256" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H256" t="n">
+      <c r="H256" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8650,15 +8650,15 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>80581376.137876</v>
+        <v>80581376.13787618</v>
       </c>
       <c r="F257" t="n">
-        <v>2137339.729424</v>
+        <v>2137339.729424005</v>
       </c>
       <c r="G257" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H257" t="n">
+      <c r="H257" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8682,15 +8682,15 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29877646.459099</v>
+        <v>29877646.45909893</v>
       </c>
       <c r="F258" t="n">
-        <v>29877646.459099</v>
+        <v>29877646.45909893</v>
       </c>
       <c r="G258" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H258" t="n">
+      <c r="H258" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8714,15 +8714,15 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>264862185.970811</v>
+        <v>264862185.97081</v>
       </c>
       <c r="F259" t="n">
-        <v>7113725.347414999</v>
+        <v>7113725.347415004</v>
       </c>
       <c r="G259" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H259" t="n">
+      <c r="H259" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8746,15 +8746,15 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>151441.767233</v>
+        <v>151441.7672329998</v>
       </c>
       <c r="F260" t="n">
-        <v>5788.269813</v>
+        <v>5788.269813000004</v>
       </c>
       <c r="G260" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H260" t="n">
+      <c r="H260" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8781,12 +8781,12 @@
         <v>3384752.50011</v>
       </c>
       <c r="F261" t="n">
-        <v>129559.697377</v>
+        <v>129559.6973769997</v>
       </c>
       <c r="G261" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H261" t="n">
+      <c r="H261" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8810,15 +8810,15 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32819958.063109</v>
+        <v>32819958.06310906</v>
       </c>
       <c r="F262" t="n">
-        <v>1255975.186651</v>
+        <v>1255975.186650998</v>
       </c>
       <c r="G262" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H262" t="n">
+      <c r="H262" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8842,15 +8842,15 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>14713008.202247</v>
+        <v>14713008.20224699</v>
       </c>
       <c r="F263" t="n">
-        <v>563056.8068319999</v>
+        <v>563056.8068319989</v>
       </c>
       <c r="G263" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H263" t="n">
+      <c r="H263" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8874,15 +8874,15 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>24236400.573646</v>
+        <v>24236400.57364606</v>
       </c>
       <c r="F264" t="n">
-        <v>927512.7192920001</v>
+        <v>927512.7192920055</v>
       </c>
       <c r="G264" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H264" t="n">
+      <c r="H264" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8906,15 +8906,15 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>43438023.725682</v>
+        <v>43438023.72568202</v>
       </c>
       <c r="F265" t="n">
-        <v>1662375.345176</v>
+        <v>1662375.345175994</v>
       </c>
       <c r="G265" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H265" t="n">
+      <c r="H265" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8938,15 +8938,15 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>13150285.421705</v>
+        <v>13150285.42170501</v>
       </c>
       <c r="F266" t="n">
-        <v>13150285.421705</v>
+        <v>13150285.42170501</v>
       </c>
       <c r="G266" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H266" t="n">
+      <c r="H266" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8970,15 +8970,15 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>118483624.291082</v>
+        <v>118483624.2910824</v>
       </c>
       <c r="F267" t="n">
-        <v>4534581.179897</v>
+        <v>4534581.179896986</v>
       </c>
       <c r="G267" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H267" t="n">
+      <c r="H267" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9002,15 +9002,15 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>49080034.933637</v>
+        <v>49080034.93363693</v>
       </c>
       <c r="F268" t="n">
-        <v>49080034.933637</v>
+        <v>49080034.93363693</v>
       </c>
       <c r="G268" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H268" t="n">
+      <c r="H268" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9034,15 +9034,15 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>13904787121.97789</v>
+        <v>13904787121.97797</v>
       </c>
       <c r="F269" t="n">
-        <v>13904787121.97789</v>
+        <v>13904787121.97797</v>
       </c>
       <c r="G269" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H269" t="n">
+      <c r="H269" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9066,15 +9066,15 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>334951191.82109</v>
+        <v>334951191.8210903</v>
       </c>
       <c r="F270" t="n">
-        <v>334951191.82109</v>
+        <v>334951191.8210903</v>
       </c>
       <c r="G270" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H270" t="n">
+      <c r="H270" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9098,15 +9098,15 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>775254996.396663</v>
+        <v>775254996.396667</v>
       </c>
       <c r="F271" t="n">
-        <v>775254996.396663</v>
+        <v>775254996.396667</v>
       </c>
       <c r="G271" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H271" t="n">
+      <c r="H271" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9130,15 +9130,15 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>427985396.391961</v>
+        <v>427985396.3919621</v>
       </c>
       <c r="F272" t="n">
-        <v>427985396.391961</v>
+        <v>427985396.3919621</v>
       </c>
       <c r="G272" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H272" t="n">
+      <c r="H272" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9162,15 +9162,15 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>491667112.2202231</v>
+        <v>491667112.2202246</v>
       </c>
       <c r="F273" t="n">
-        <v>491667112.2202231</v>
+        <v>491667112.2202246</v>
       </c>
       <c r="G273" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H273" t="n">
+      <c r="H273" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9194,15 +9194,15 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.6231720000000001</v>
+        <v>0.623171999999995</v>
       </c>
       <c r="F274" t="n">
-        <v>0.6231720000000001</v>
+        <v>0.623171999999995</v>
       </c>
       <c r="G274" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H274" t="n">
+      <c r="H274" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9226,15 +9226,15 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1110206188.217753</v>
+        <v>1110206188.217748</v>
       </c>
       <c r="F275" t="n">
-        <v>1110206188.217753</v>
+        <v>1110206188.217748</v>
       </c>
       <c r="G275" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H275" t="n">
+      <c r="H275" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9258,7 +9258,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>4585129.890124</v>
+        <v>4585129.890124019</v>
       </c>
       <c r="F276" t="n">
         <v>173535.09199</v>
@@ -9266,7 +9266,7 @@
       <c r="G276" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H276" t="n">
+      <c r="H276" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9290,15 +9290,15 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>5557135.227733999</v>
+        <v>5557135.227734008</v>
       </c>
       <c r="F277" t="n">
-        <v>166576.753755</v>
+        <v>166576.7537549996</v>
       </c>
       <c r="G277" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H277" t="n">
+      <c r="H277" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9322,15 +9322,15 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>54999659.420978</v>
+        <v>54999659.42097821</v>
       </c>
       <c r="F278" t="n">
-        <v>1614825.239975</v>
+        <v>1614825.239975002</v>
       </c>
       <c r="G278" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H278" t="n">
+      <c r="H278" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9354,15 +9354,15 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24585584.304252</v>
+        <v>24585584.30425192</v>
       </c>
       <c r="F279" t="n">
-        <v>723930.180213</v>
+        <v>723930.1802130025</v>
       </c>
       <c r="G279" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H279" t="n">
+      <c r="H279" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9386,15 +9386,15 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20514146.018781</v>
+        <v>20514146.01878098</v>
       </c>
       <c r="F280" t="n">
-        <v>601321.541534</v>
+        <v>601321.5415340016</v>
       </c>
       <c r="G280" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H280" t="n">
+      <c r="H280" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9418,15 +9418,15 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40580876.0584</v>
+        <v>40580876.05839994</v>
       </c>
       <c r="F281" t="n">
-        <v>1192516.353404</v>
+        <v>1192516.353404002</v>
       </c>
       <c r="G281" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H281" t="n">
+      <c r="H281" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9450,15 +9450,15 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>72836330.733</v>
+        <v>72836330.7330001</v>
       </c>
       <c r="F282" t="n">
-        <v>2137339.729424</v>
+        <v>2137339.729424005</v>
       </c>
       <c r="G282" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H282" t="n">
+      <c r="H282" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9482,15 +9482,15 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>23576856.484306</v>
+        <v>23576856.48430608</v>
       </c>
       <c r="F283" t="n">
-        <v>23576856.484306</v>
+        <v>23576856.48430608</v>
       </c>
       <c r="G283" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H283" t="n">
+      <c r="H283" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9514,15 +9514,15 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>208002732.593074</v>
+        <v>208002732.5930739</v>
       </c>
       <c r="F284" t="n">
-        <v>6204435.916887</v>
+        <v>6204435.916886984</v>
       </c>
       <c r="G284" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H284" t="n">
+      <c r="H284" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9546,15 +9546,15 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>312601.479307</v>
+        <v>312601.4793069978</v>
       </c>
       <c r="F285" t="n">
-        <v>312601.479307</v>
+        <v>312601.4793069978</v>
       </c>
       <c r="G285" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H285" t="n">
+      <c r="H285" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9586,7 +9586,7 @@
       <c r="G286" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H286" t="n">
+      <c r="H286" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9610,15 +9610,15 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>5787.142326</v>
+        <v>5787.142325999981</v>
       </c>
       <c r="F287" t="n">
-        <v>5787.142326</v>
+        <v>5787.142325999981</v>
       </c>
       <c r="G287" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H287" t="n">
+      <c r="H287" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9642,15 +9642,15 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22611506.385306</v>
+        <v>22611506.38530592</v>
       </c>
       <c r="F288" t="n">
-        <v>22611506.385306</v>
+        <v>22611506.38530592</v>
       </c>
       <c r="G288" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H288" t="n">
+      <c r="H288" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9674,15 +9674,15 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>565470027.999383</v>
+        <v>565470027.9993839</v>
       </c>
       <c r="F289" t="n">
-        <v>565470027.999383</v>
+        <v>565470027.9993839</v>
       </c>
       <c r="G289" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H289" t="n">
+      <c r="H289" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9706,15 +9706,15 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>77283331.732778</v>
+        <v>77283331.73277798</v>
       </c>
       <c r="F290" t="n">
-        <v>77283331.732778</v>
+        <v>77283331.73277798</v>
       </c>
       <c r="G290" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H290" t="n">
+      <c r="H290" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9738,15 +9738,15 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>231733304.652071</v>
+        <v>231733304.6520717</v>
       </c>
       <c r="F291" t="n">
-        <v>231733304.652071</v>
+        <v>231733304.6520717</v>
       </c>
       <c r="G291" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H291" t="n">
+      <c r="H291" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9770,15 +9770,15 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22620628.16005</v>
+        <v>22620628.16005003</v>
       </c>
       <c r="F292" t="n">
-        <v>22620628.16005</v>
+        <v>22620628.16005003</v>
       </c>
       <c r="G292" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H292" t="n">
+      <c r="H292" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9810,7 +9810,7 @@
       <c r="G293" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H293" t="n">
+      <c r="H293" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9834,15 +9834,15 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>354614258.110333</v>
+        <v>354614258.1103324</v>
       </c>
       <c r="F294" t="n">
-        <v>354614258.110333</v>
+        <v>354614258.1103324</v>
       </c>
       <c r="G294" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H294" t="n">
+      <c r="H294" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9866,15 +9866,15 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1061905800.947636</v>
+        <v>1061905800.947635</v>
       </c>
       <c r="F295" t="n">
-        <v>1061905800.947636</v>
+        <v>1061905800.947635</v>
       </c>
       <c r="G295" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H295" t="n">
+      <c r="H295" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9906,7 +9906,7 @@
       <c r="G296" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H296" t="n">
+      <c r="H296" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9930,15 +9930,15 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>166124102.350003</v>
+        <v>166124102.3500032</v>
       </c>
       <c r="F297" t="n">
-        <v>166124102.350003</v>
+        <v>166124102.3500032</v>
       </c>
       <c r="G297" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H297" t="n">
+      <c r="H297" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9962,15 +9962,15 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>40139724.845943</v>
+        <v>40139724.84594302</v>
       </c>
       <c r="F298" t="n">
-        <v>40139724.845943</v>
+        <v>40139724.84594302</v>
       </c>
       <c r="G298" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H298" t="n">
+      <c r="H298" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9994,15 +9994,15 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>120323987.757982</v>
+        <v>120323987.7579819</v>
       </c>
       <c r="F299" t="n">
-        <v>120323987.757982</v>
+        <v>120323987.7579819</v>
       </c>
       <c r="G299" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H299" t="n">
+      <c r="H299" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10026,15 +10026,15 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>75109309.564771</v>
+        <v>75109309.56477125</v>
       </c>
       <c r="F300" t="n">
-        <v>75109309.564771</v>
+        <v>75109309.56477125</v>
       </c>
       <c r="G300" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H300" t="n">
+      <c r="H300" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10058,15 +10058,15 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>985222829.745253</v>
+        <v>985222829.7452567</v>
       </c>
       <c r="F301" t="n">
-        <v>985222829.745253</v>
+        <v>985222829.7452567</v>
       </c>
       <c r="G301" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H301" t="n">
+      <c r="H301" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10090,15 +10090,15 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>39167744.754414</v>
+        <v>39167744.75441388</v>
       </c>
       <c r="F302" t="n">
-        <v>39167744.754414</v>
+        <v>39167744.75441388</v>
       </c>
       <c r="G302" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H302" t="n">
+      <c r="H302" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10122,15 +10122,15 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>117552946.837058</v>
+        <v>117552946.8370582</v>
       </c>
       <c r="F303" t="n">
-        <v>117552946.837058</v>
+        <v>117552946.8370582</v>
       </c>
       <c r="G303" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H303" t="n">
+      <c r="H303" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10154,15 +10154,15 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>60066001.517726</v>
+        <v>60066001.51772578</v>
       </c>
       <c r="F304" t="n">
-        <v>60066001.517726</v>
+        <v>60066001.51772578</v>
       </c>
       <c r="G304" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H304" t="n">
+      <c r="H304" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10186,15 +10186,15 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>231152153.111491</v>
+        <v>231152153.1114908</v>
       </c>
       <c r="F305" t="n">
-        <v>231152153.111491</v>
+        <v>231152153.1114908</v>
       </c>
       <c r="G305" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H305" t="n">
+      <c r="H305" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10218,15 +10218,15 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>398.786161</v>
+        <v>398.7861609999985</v>
       </c>
       <c r="F306" t="n">
-        <v>398.786161</v>
+        <v>398.7861609999985</v>
       </c>
       <c r="G306" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H306" t="n">
+      <c r="H306" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
       <c r="G307" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H307" t="n">
+      <c r="H307" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10285,12 +10285,12 @@
         <v>1083908.118332</v>
       </c>
       <c r="F308" t="n">
-        <v>29841.957853</v>
+        <v>29841.95785300006</v>
       </c>
       <c r="G308" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H308" t="n">
+      <c r="H308" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10322,7 +10322,7 @@
       <c r="G309" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H309" t="n">
+      <c r="H309" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10349,12 +10349,12 @@
         <v>0</v>
       </c>
       <c r="F310" t="n">
-        <v>239.23478</v>
+        <v>239.2347800000005</v>
       </c>
       <c r="G310" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H310" t="n">
+      <c r="H310" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10378,15 +10378,15 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>115634.388427</v>
+        <v>115634.3884270006</v>
       </c>
       <c r="F311" t="n">
-        <v>3342.336574</v>
+        <v>3342.336573999993</v>
       </c>
       <c r="G311" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H311" t="n">
+      <c r="H311" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10410,15 +10410,15 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>250614534.504926</v>
+        <v>250614534.5049261</v>
       </c>
       <c r="F312" t="n">
-        <v>250614534.504926</v>
+        <v>250614534.5049261</v>
       </c>
       <c r="G312" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H312" t="n">
+      <c r="H312" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10442,15 +10442,15 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>702035.64812</v>
+        <v>702035.6481200006</v>
       </c>
       <c r="F313" t="n">
-        <v>19424.960234</v>
+        <v>19424.96023399993</v>
       </c>
       <c r="G313" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H313" t="n">
+      <c r="H313" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10474,15 +10474,15 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>5781.15373</v>
+        <v>5781.153730000037</v>
       </c>
       <c r="F314" t="n">
-        <v>5781.15373</v>
+        <v>5781.153730000037</v>
       </c>
       <c r="G314" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H314" t="n">
+      <c r="H314" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10506,15 +10506,15 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>5780.923321</v>
+        <v>5780.92332100001</v>
       </c>
       <c r="F315" t="n">
-        <v>5780.923321</v>
+        <v>5780.92332100001</v>
       </c>
       <c r="G315" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H315" t="n">
+      <c r="H315" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10538,15 +10538,15 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1653986077.377169</v>
+        <v>1653986077.377171</v>
       </c>
       <c r="F316" t="n">
-        <v>1653986077.377169</v>
+        <v>1653986077.377171</v>
       </c>
       <c r="G316" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H316" t="n">
+      <c r="H316" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10570,15 +10570,15 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>5783.685304</v>
+        <v>5783.68530400001</v>
       </c>
       <c r="F317" t="n">
-        <v>5783.685304</v>
+        <v>5783.68530400001</v>
       </c>
       <c r="G317" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H317" t="n">
+      <c r="H317" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10602,15 +10602,15 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>638192.996167</v>
+        <v>638192.9961669985</v>
       </c>
       <c r="F318" t="n">
-        <v>78975.68047400001</v>
+        <v>78975.68047399995</v>
       </c>
       <c r="G318" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H318" t="n">
+      <c r="H318" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10634,15 +10634,15 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>113577378.880232</v>
+        <v>113577378.8802318</v>
       </c>
       <c r="F319" t="n">
-        <v>113577378.880232</v>
+        <v>113577378.8802318</v>
       </c>
       <c r="G319" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H319" t="n">
+      <c r="H319" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10666,15 +10666,15 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>5780.912482</v>
+        <v>5780.912481999988</v>
       </c>
       <c r="F320" t="n">
-        <v>5780.912482</v>
+        <v>5780.912481999988</v>
       </c>
       <c r="G320" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H320" t="n">
+      <c r="H320" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10698,15 +10698,15 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>3429219.224779</v>
+        <v>3429219.224778991</v>
       </c>
       <c r="F321" t="n">
-        <v>3429219.224779</v>
+        <v>3429219.224778991</v>
       </c>
       <c r="G321" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H321" t="n">
+      <c r="H321" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10730,15 +10730,15 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>4095659457.706653</v>
+        <v>4095659457.706643</v>
       </c>
       <c r="F322" t="n">
-        <v>4095659457.706653</v>
+        <v>4095659457.706643</v>
       </c>
       <c r="G322" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H322" t="n">
+      <c r="H322" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       <c r="G323" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H323" t="n">
+      <c r="H323" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10794,15 +10794,15 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>651425486.634479</v>
+        <v>651425486.6344768</v>
       </c>
       <c r="F324" t="n">
-        <v>651425486.634479</v>
+        <v>651425486.6344768</v>
       </c>
       <c r="G324" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H324" t="n">
+      <c r="H324" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>866018.57413</v>
+        <v>866018.574130001</v>
       </c>
       <c r="F325" t="n">
         <v>24607.890118</v>
@@ -10834,7 +10834,7 @@
       <c r="G325" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H325" t="n">
+      <c r="H325" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10858,15 +10858,15 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>151877.246105</v>
+        <v>151877.2461049999</v>
       </c>
       <c r="F326" t="n">
-        <v>5783.402042000001</v>
+        <v>5783.402042000002</v>
       </c>
       <c r="G326" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H326" t="n">
+      <c r="H326" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10890,15 +10890,15 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>5780.91146</v>
+        <v>5780.911459999997</v>
       </c>
       <c r="F327" t="n">
-        <v>5780.91146</v>
+        <v>5780.911459999997</v>
       </c>
       <c r="G327" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H327" t="n">
+      <c r="H327" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10922,15 +10922,15 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>5780.913305</v>
+        <v>5780.913304999985</v>
       </c>
       <c r="F328" t="n">
-        <v>5780.913305</v>
+        <v>5780.913304999985</v>
       </c>
       <c r="G328" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H328" t="n">
+      <c r="H328" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10954,15 +10954,15 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>5780.896715</v>
+        <v>5780.896715000001</v>
       </c>
       <c r="F329" t="n">
-        <v>5780.896715</v>
+        <v>5780.896715000001</v>
       </c>
       <c r="G329" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H329" t="n">
+      <c r="H329" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10986,15 +10986,15 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>156718257.665742</v>
+        <v>156718257.6657432</v>
       </c>
       <c r="F330" t="n">
-        <v>156718257.665742</v>
+        <v>156718257.6657432</v>
       </c>
       <c r="G330" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H330" t="n">
+      <c r="H330" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11018,15 +11018,15 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5781.284817</v>
+        <v>5781.284816999988</v>
       </c>
       <c r="F331" t="n">
-        <v>5781.284817</v>
+        <v>5781.284816999988</v>
       </c>
       <c r="G331" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H331" t="n">
+      <c r="H331" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11050,15 +11050,15 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>410336826.37276</v>
+        <v>410336826.3727613</v>
       </c>
       <c r="F332" t="n">
-        <v>410336826.37276</v>
+        <v>410336826.3727613</v>
       </c>
       <c r="G332" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H332" t="n">
+      <c r="H332" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11082,15 +11082,15 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>202571571.087629</v>
+        <v>202571571.0876296</v>
       </c>
       <c r="F333" t="n">
-        <v>202571571.087629</v>
+        <v>202571571.0876296</v>
       </c>
       <c r="G333" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H333" t="n">
+      <c r="H333" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11122,7 +11122,7 @@
       <c r="G334" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H334" t="n">
+      <c r="H334" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11146,15 +11146,15 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>4106869917.559577</v>
+        <v>4106869917.559552</v>
       </c>
       <c r="F335" t="n">
-        <v>4106869917.559579</v>
+        <v>4106869917.559554</v>
       </c>
       <c r="G335" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H335" t="n">
+      <c r="H335" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11178,15 +11178,15 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>140147430.332043</v>
+        <v>140147430.3320428</v>
       </c>
       <c r="F336" t="n">
-        <v>140147430.332043</v>
+        <v>140147430.3320428</v>
       </c>
       <c r="G336" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H336" t="n">
+      <c r="H336" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11210,15 +11210,15 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>2050549443.683952</v>
+        <v>2050549443.683951</v>
       </c>
       <c r="F337" t="n">
-        <v>2050549443.683952</v>
+        <v>2050549443.683951</v>
       </c>
       <c r="G337" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H337" t="n">
+      <c r="H337" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11242,15 +11242,15 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>5780.90635</v>
+        <v>5780.906350000027</v>
       </c>
       <c r="F338" t="n">
-        <v>5780.90635</v>
+        <v>5780.906350000027</v>
       </c>
       <c r="G338" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H338" t="n">
+      <c r="H338" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11274,15 +11274,15 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1394777922.198802</v>
+        <v>1394777922.198798</v>
       </c>
       <c r="F339" t="n">
-        <v>1394777922.198803</v>
+        <v>1394777922.1988</v>
       </c>
       <c r="G339" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H339" t="n">
+      <c r="H339" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11306,15 +11306,15 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>5780.917139</v>
+        <v>5780.917139000017</v>
       </c>
       <c r="F340" t="n">
-        <v>5780.917139</v>
+        <v>5780.917139000017</v>
       </c>
       <c r="G340" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H340" t="n">
+      <c r="H340" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11338,15 +11338,15 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>4087.728258</v>
+        <v>4087.728258000005</v>
       </c>
       <c r="F341" t="n">
-        <v>4087.728258</v>
+        <v>4087.728258000005</v>
       </c>
       <c r="G341" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H341" t="n">
+      <c r="H341" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11370,15 +11370,15 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>5780.91146</v>
+        <v>5780.911459999997</v>
       </c>
       <c r="F342" t="n">
-        <v>5780.91146</v>
+        <v>5780.911459999997</v>
       </c>
       <c r="G342" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H342" t="n">
+      <c r="H342" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11402,15 +11402,15 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5780.892334</v>
+        <v>5780.892334000003</v>
       </c>
       <c r="F343" t="n">
-        <v>5780.892334</v>
+        <v>5780.892334000003</v>
       </c>
       <c r="G343" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H343" t="n">
+      <c r="H343" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11434,15 +11434,15 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>2197283498.326433</v>
+        <v>2197283498.326429</v>
       </c>
       <c r="F344" t="n">
-        <v>2197283498.326434</v>
+        <v>2197283498.32643</v>
       </c>
       <c r="G344" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H344" t="n">
+      <c r="H344" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11466,15 +11466,15 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>76964603.881668</v>
+        <v>76964603.88166778</v>
       </c>
       <c r="F345" t="n">
-        <v>76964603.881668</v>
+        <v>76964603.88166778</v>
       </c>
       <c r="G345" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H345" t="n">
+      <c r="H345" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11498,15 +11498,15 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>132131307.919574</v>
+        <v>132131307.9195741</v>
       </c>
       <c r="F346" t="n">
-        <v>132131307.919574</v>
+        <v>132131307.9195741</v>
       </c>
       <c r="G346" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H346" t="n">
+      <c r="H346" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11530,15 +11530,15 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>5780.952646</v>
+        <v>5780.952645999995</v>
       </c>
       <c r="F347" t="n">
-        <v>5780.952646</v>
+        <v>5780.952645999995</v>
       </c>
       <c r="G347" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H347" t="n">
+      <c r="H347" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11562,15 +11562,15 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37088255.692978</v>
+        <v>37088255.69297801</v>
       </c>
       <c r="F348" t="n">
-        <v>37088255.692978</v>
+        <v>37088255.69297801</v>
       </c>
       <c r="G348" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H348" t="n">
+      <c r="H348" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11594,15 +11594,15 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>5780.920187</v>
+        <v>5780.920187000004</v>
       </c>
       <c r="F349" t="n">
-        <v>5780.920187</v>
+        <v>5780.920187000004</v>
       </c>
       <c r="G349" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H349" t="n">
+      <c r="H349" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11626,15 +11626,15 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>5780.914489</v>
+        <v>5780.914488999995</v>
       </c>
       <c r="F350" t="n">
-        <v>5780.914489</v>
+        <v>5780.914488999995</v>
       </c>
       <c r="G350" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H350" t="n">
+      <c r="H350" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11666,7 +11666,7 @@
       <c r="G351" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H351" t="n">
+      <c r="H351" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11690,15 +11690,15 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>638794603.141191</v>
+        <v>638794603.1411916</v>
       </c>
       <c r="F352" t="n">
-        <v>638794603.141191</v>
+        <v>638794603.1411916</v>
       </c>
       <c r="G352" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H352" t="n">
+      <c r="H352" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11730,7 +11730,7 @@
       <c r="G353" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H353" t="n">
+      <c r="H353" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11754,15 +11754,15 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>5784.569860000001</v>
+        <v>5784.569860000012</v>
       </c>
       <c r="F354" t="n">
-        <v>5784.569860000001</v>
+        <v>5784.569860000012</v>
       </c>
       <c r="G354" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H354" t="n">
+      <c r="H354" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11786,15 +11786,15 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1246438.696349</v>
+        <v>1246438.696349001</v>
       </c>
       <c r="F355" t="n">
-        <v>38055.472927</v>
+        <v>38055.47292700008</v>
       </c>
       <c r="G355" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H355" t="n">
+      <c r="H355" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11818,15 +11818,15 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>805529997.815163</v>
+        <v>805529997.8151631</v>
       </c>
       <c r="F356" t="n">
-        <v>805529997.815163</v>
+        <v>805529997.8151631</v>
       </c>
       <c r="G356" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H356" t="n">
+      <c r="H356" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11850,15 +11850,15 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>6950885757.041417</v>
+        <v>6950885757.041411</v>
       </c>
       <c r="F357" t="n">
-        <v>6950885757.041415</v>
+        <v>6950885757.041409</v>
       </c>
       <c r="G357" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H357" t="n">
+      <c r="H357" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11882,15 +11882,15 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>161762204.268587</v>
+        <v>161762204.2685864</v>
       </c>
       <c r="F358" t="n">
-        <v>161762204.268587</v>
+        <v>161762204.2685864</v>
       </c>
       <c r="G358" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H358" t="n">
+      <c r="H358" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11914,15 +11914,15 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>361222224.5093</v>
+        <v>361222224.5093004</v>
       </c>
       <c r="F359" t="n">
-        <v>361222224.5093</v>
+        <v>361222224.5093004</v>
       </c>
       <c r="G359" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H359" t="n">
+      <c r="H359" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11954,7 +11954,7 @@
       <c r="G360" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H360" t="n">
+      <c r="H360" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11978,15 +11978,15 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>174628584.981288</v>
+        <v>174628584.9812877</v>
       </c>
       <c r="F361" t="n">
-        <v>174628584.981288</v>
+        <v>174628584.9812877</v>
       </c>
       <c r="G361" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H361" t="n">
+      <c r="H361" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12010,15 +12010,15 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>1981843.252566</v>
+        <v>1981843.252566001</v>
       </c>
       <c r="F362" t="n">
-        <v>43334.196556</v>
+        <v>43334.19655599999</v>
       </c>
       <c r="G362" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H362" t="n">
+      <c r="H362" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12042,15 +12042,15 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>259960.540799</v>
+        <v>259960.5407990006</v>
       </c>
       <c r="F363" t="n">
-        <v>9686.845261</v>
+        <v>9686.845260999951</v>
       </c>
       <c r="G363" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H363" t="n">
+      <c r="H363" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12074,15 +12074,15 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>13178612160.51485</v>
+        <v>13178612160.51481</v>
       </c>
       <c r="F364" t="n">
-        <v>13178612160.51485</v>
+        <v>13178612160.51481</v>
       </c>
       <c r="G364" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H364" t="n">
+      <c r="H364" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12106,15 +12106,15 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>190553680.228756</v>
+        <v>190553680.2287561</v>
       </c>
       <c r="F365" t="n">
-        <v>190553680.228756</v>
+        <v>190553680.2287561</v>
       </c>
       <c r="G365" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H365" t="n">
+      <c r="H365" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12138,15 +12138,15 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>15656129.06079</v>
+        <v>15656129.06078998</v>
       </c>
       <c r="F366" t="n">
-        <v>405608.973367</v>
+        <v>405608.9733669982</v>
       </c>
       <c r="G366" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H366" t="n">
+      <c r="H366" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12170,15 +12170,15 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>10607906.765696</v>
+        <v>10607906.76569597</v>
       </c>
       <c r="F367" t="n">
-        <v>10607906.765696</v>
+        <v>10607906.76569597</v>
       </c>
       <c r="G367" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H367" t="n">
+      <c r="H367" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12202,15 +12202,15 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>356348229.73271</v>
+        <v>356348229.7327096</v>
       </c>
       <c r="F368" t="n">
-        <v>356348229.73271</v>
+        <v>356348229.7327096</v>
       </c>
       <c r="G368" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H368" t="n">
+      <c r="H368" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12234,15 +12234,15 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65363839.74387</v>
+        <v>65363839.74386986</v>
       </c>
       <c r="F369" t="n">
-        <v>65363839.74387</v>
+        <v>65363839.74386986</v>
       </c>
       <c r="G369" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H369" t="n">
+      <c r="H369" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12266,15 +12266,15 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>65850677.320541</v>
+        <v>65850677.32054132</v>
       </c>
       <c r="F370" t="n">
-        <v>65850677.320541</v>
+        <v>65850677.32054132</v>
       </c>
       <c r="G370" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H370" t="n">
+      <c r="H370" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12298,15 +12298,15 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>942779192.472984</v>
+        <v>942779192.4729834</v>
       </c>
       <c r="F371" t="n">
-        <v>942779192.472984</v>
+        <v>942779192.4729834</v>
       </c>
       <c r="G371" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H371" t="n">
+      <c r="H371" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12330,15 +12330,15 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>291216948.680548</v>
+        <v>291216948.6805482</v>
       </c>
       <c r="F372" t="n">
-        <v>291216948.680548</v>
+        <v>291216948.6805482</v>
       </c>
       <c r="G372" t="n">
         <v>4999.5</v>
       </c>
-      <c r="H372" t="n">
+      <c r="H372" t="b">
         <v>1</v>
       </c>
     </row>
